--- a/data/trans_camb/P25_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_6-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 6,85</t>
+          <t>-7,74; 4,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,13</t>
+          <t>-6,86; 7,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,74</t>
+          <t>-7,27; 8,12</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 2,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 2,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 4,11</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>121,2%</t>
+          <t>-7,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>64,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,82</t>
+          <t>-4,64; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,41</t>
+          <t>-5,4; 7,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>-8,25; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 5,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 3,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 2,14</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>115,83%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-16,83%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>336,6%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>104,8%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-3,95%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,91</t>
+          <t>-1,76; 3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,08</t>
+          <t>-1,75; 3,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,32</t>
+          <t>-1,07; 5,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 2,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 2,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,59</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>119,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>168,23%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>147,99%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,89</t>
+          <t>-7,13; 1,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 2,0</t>
+          <t>-6,17; 3,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,14</t>
+          <t>-7,16; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,54</t>
+          <t>-2,17; 7,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,82</t>
+          <t>-2,44; 6,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,55</t>
+          <t>-1,91; 7,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 3,49</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 3,39</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 3,6</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,64%</t>
+          <t>-55,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-39,33%</t>
+          <t>-20,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>151,71%</t>
+          <t>-60,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>155,95%</t>
+          <t>121,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>115,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,62; 130,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,21; 107,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-63,08; 184,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 175,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-77,95; 488,49</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-81,56; 414,64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-83,77; 598,07</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 5,07</t>
+          <t>-27,7; 5,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 10,88</t>
+          <t>-21,54; 15,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 10,85</t>
+          <t>-16,55; 20,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,58</t>
+          <t>-11,27; 8,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,82</t>
+          <t>-12,38; 6,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,32</t>
+          <t>-12,74; 6,23</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; 3,84</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 8,81</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,76; 9,79</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-24,25%</t>
+          <t>-37,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-34,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>-33,84%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-29,37%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-17,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 103,17</t>
+          <t>-93,1; 125,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,48; 185,56</t>
+          <t>-92,47; 341,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 498,66</t>
+          <t>-81,29; 390,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-75,5; 410,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 124,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 134,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-85,36; 75,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-81,19; 189,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-72,61; 185,69</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 14,86</t>
+          <t>-14,66; 21,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 7,03</t>
+          <t>-21,19; 12,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 6,4</t>
+          <t>-12,4; 24,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 13,31</t>
+          <t>-17,3; 16,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 6,91</t>
+          <t>-17,27; 15,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 7,41</t>
+          <t>-12,18; 22,11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 12,62</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 7,78</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 18,08</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-24,68%</t>
+          <t>-27,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>-8,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-14,61%</t>
+          <t>21,44%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-16,79%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>28,3%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 97,83</t>
+          <t>-58,66; 257,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,7; 47,02</t>
+          <t>-82,28; 165,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 49,88</t>
+          <t>-48,41; 277,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 101,68</t>
+          <t>-64,05; 140,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 42,18</t>
+          <t>-66,26; 139,61</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-52,13; 43,17</t>
+          <t>-48,12; 199,82</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-45,66; 93,28</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-60,15; 60,74</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-30,32; 122,41</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 2,0</t>
+          <t>-5,66; 2,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,29</t>
+          <t>-5,48; 2,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,76</t>
+          <t>-4,46; 5,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,45</t>
+          <t>-2,03; 3,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,67</t>
+          <t>-3,06; 2,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,61</t>
+          <t>-0,67; 6,31</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 2,12</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 2,01</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 4,43</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>-19,99%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-24,88%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>60,57%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-13,53%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 41,13</t>
+          <t>-66,39; 66,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,26; 29,2</t>
+          <t>-66,93; 87,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 89,46</t>
+          <t>-54,79; 145,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 115,72</t>
+          <t>-36,41; 133,35</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 42,13</t>
+          <t>-56,3; 109,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 38,83</t>
+          <t>-14,86; 210,41</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-42,93; 62,34</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 57,64</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-21,51; 123,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
